--- a/src/main/java/com/qa/TestData/HalfEbayTestData.xlsx
+++ b/src/main/java/com/qa/TestData/HalfEbayTestData.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet name="RegTestData" sheetId="1" r:id="rId1"/>
     <sheet name="ParameteriseData" sheetId="2" r:id="rId2"/>
+    <sheet name="HomePage" r:id="rId6" sheetId="3"/>
+    <sheet name="ContactsPage" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J13"/>
 </workbook>
 </file>
 
@@ -103,6 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -499,20 +501,20 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="9.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -581,19 +583,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="13.8">
@@ -642,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3">
-        <v>94085</v>
+        <v>94091</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
@@ -668,7 +670,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="3">
-        <v>94085</v>
+        <v>94092</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -694,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="3">
-        <v>94085</v>
+        <v>94093</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
@@ -720,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="3">
-        <v>94085</v>
+        <v>94094</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
@@ -735,4 +737,28 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/main/java/com/qa/TestData/HalfEbayTestData.xlsx
+++ b/src/main/java/com/qa/TestData/HalfEbayTestData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="12384" windowHeight="4308" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="11448" windowHeight="4308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegTestData" sheetId="1" r:id="rId1"/>
     <sheet name="ParameteriseData" sheetId="2" r:id="rId2"/>
-    <sheet name="HomePage" r:id="rId6" sheetId="3"/>
-    <sheet name="ContactsPage" r:id="rId7" sheetId="4"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="ContactsPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -104,7 +105,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -506,15 +506,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="9.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
-    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -588,14 +588,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="13.8">
@@ -740,25 +740,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/com/qa/TestData/HalfEbayTestData.xlsx
+++ b/src/main/java/com/qa/TestData/HalfEbayTestData.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="11448" windowHeight="4308" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="11448" windowHeight="4308" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RegTestData" sheetId="1" r:id="rId1"/>
     <sheet name="ParameteriseData" sheetId="2" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
     <sheet name="ContactsPage" sheetId="4" r:id="rId4"/>
+    <sheet name="WebTableData" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>FirstName</t>
   </si>
@@ -99,12 +99,55 @@
   </si>
   <si>
     <t>#15, New Street</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Alfreds Futterkiste</t>
+  </si>
+  <si>
+    <t>Maria Anders</t>
+  </si>
+  <si>
+    <t>Centro comercial Moctezuma</t>
+  </si>
+  <si>
+    <t>Francisco Chang</t>
+  </si>
+  <si>
+    <t>Ernst Handel</t>
+  </si>
+  <si>
+    <t>Roland Mendel</t>
+  </si>
+  <si>
+    <t>Island Trading</t>
+  </si>
+  <si>
+    <t>Helen Bennett</t>
+  </si>
+  <si>
+    <t>Laughing Bacchus Winecellars</t>
+  </si>
+  <si>
+    <t>Yoshi Tannamuri</t>
+  </si>
+  <si>
+    <t>Magazzini Alimentari Riuniti</t>
+  </si>
+  <si>
+    <t>Giovanni Rovelli</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -144,7 +187,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +198,16 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -189,7 +242,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +256,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -506,15 +561,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.21875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="9.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -582,20 +637,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="13.8">
@@ -755,10 +810,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.93359375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>